--- a/biology/Zoologie/Gasteruption_jaculator/Gasteruption_jaculator.xlsx
+++ b/biology/Zoologie/Gasteruption_jaculator/Gasteruption_jaculator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gasteruption jaculator, le gastéruption à javelot, est une espèce d'insectes de l'ordre des hyménoptères et de la famille des Gasteruptiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tête et le thorax sont noirs. Le gastre noir, long et fin, est attaché au sommet du propodeum. Au repos, les ailes sont pliées le long du corps. Les tibias des pattes postérieures sont élargis vers le tarse. La femelle a un très long ovipositeur (d'où le nom d'espèce) avec une extrémité blanche.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve sur les fleurs d'Apiaceae (ombellifères) et d'autres plantes sauvages ou des jardins de mai à septembre. Les larves sont des parasites des larves d'abeilles solitaires.
 </t>
@@ -604,13 +622,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'espèce Gasteruption jaculator a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Ichneumon jaculator.
 La localité-type est Uppsala en Suède.
-Le lectotype est une femelle déposée à la Linnean Society, à Londres; type désigné par Achterberg &amp; Talebi, 2014.
-Synonymie
-Ichneumon jaculator Linné, 1758 Protonyme[1]
+Le lectotype est une femelle déposée à la Linnean Society, à Londres; type désigné par Achterberg &amp; Talebi, 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gasteruption_jaculator</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gasteruption_jaculator</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ichneumon jaculator Linné, 1758 Protonyme
 Foenus jaculator Fabricius, 1798
 Foenus granulithorax Tournier, 1877
 Faenus granulithorax Abeille de Perrin, 1879
@@ -625,9 +679,43 @@
 Gasteryption thomsoni var. monochropus Semenov, 1892
 Gasteryption schewyrewi Semenov, 1892
 Gasteruption jaculator Kieffer, 1912
-Gasteruption rugidorsum Kieffer, 1912
-Nom vernaculaire
-Le gastéruption à javelot</t>
+Gasteruption rugidorsum Kieffer, 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gasteruption_jaculator</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gasteruption_jaculator</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le gastéruption à javelot</t>
         </is>
       </c>
     </row>
